--- a/api/rest-api-guidelines.xlsx
+++ b/api/rest-api-guidelines.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>list of ids</t>
   </si>
@@ -81,12 +81,6 @@
     <t>documentation</t>
   </si>
   <si>
-    <t>/attributes</t>
-  </si>
-  <si>
-    <t>/history</t>
-  </si>
-  <si>
     <t>flat file link vs text (pageginated)</t>
   </si>
   <si>
@@ -145,19 +139,157 @@
   </si>
   <si>
     <t>panel data</t>
+  </si>
+  <si>
+    <t>include schema changes</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>default: bbg ticker</t>
+  </si>
+  <si>
+    <t>[how to specify other identifiers? Identifier type field?]</t>
+  </si>
+  <si>
+    <t>default format: parquet file link</t>
+  </si>
+  <si>
+    <t>timeout or 4xx error if request too large</t>
+  </si>
+  <si>
+    <t>/data</t>
+  </si>
+  <si>
+    <t>/reference</t>
+  </si>
+  <si>
+    <t>include model version for PIT analysis</t>
+  </si>
+  <si>
+    <t>/data/[vendor-specific]/</t>
+  </si>
+  <si>
+    <t>vendor-specific end points, primarily to speed up querying</t>
+  </si>
+  <si>
+    <t>What NOT to do</t>
+  </si>
+  <si>
+    <r>
+      <t>Do NOT create lots of endpoints each answering a mini use-case.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>2 is the desired number of endpoints but allowing for vendor specific variations, try not to exceed 5</t>
+  </si>
+  <si>
+    <t>Do NOT put arbitrary limits to the user requests</t>
+  </si>
+  <si>
+    <t>If user wants large amounts of data, send a file instead. Limits should be mindfully designed to optimize performance for a common use case and explicitly communicated. </t>
+  </si>
+  <si>
+    <t>Documentation is part of the product</t>
+  </si>
+  <si>
+    <t>Use Swagger if possible.  Excel data dictionaries for detailed insights.  Return the API schema when user want quick navigation on the fly</t>
+  </si>
+  <si>
+    <t>Track the versions.  Explicit about API version vs Data Version</t>
+  </si>
+  <si>
+    <t>&lt;still under discussion&gt;</t>
+  </si>
+  <si>
+    <t>Use common date formats.  Return properly formatted timestamps with timezone</t>
+  </si>
+  <si>
+    <t>The below are more VA specific issues but applies generally</t>
+  </si>
+  <si>
+    <t>Return identical comparable data across products.  Especially the feed and API should be 100% consistent in data content</t>
+  </si>
+  <si>
+    <t>It limits sales opportunities when users cannot smoothly move in between feed, api, web UI, excel add-in etc.</t>
+  </si>
+  <si>
+    <t>Pick a syntax standard and stick with it</t>
+  </si>
+  <si>
+    <t>Example: ticker=A&amp;ticker=B or ticker=A,B.  Not both in different places</t>
+  </si>
+  <si>
+    <t>Pick a punctuation standard and stick with it</t>
+  </si>
+  <si>
+    <t>Column names should be identical across endpoints and across products.  Put the standard on a MySQL and autopopulate the schema keys/columns.  </t>
+  </si>
+  <si>
+    <t>Do not require mutable strings as required parameters</t>
+  </si>
+  <si>
+    <t>Tickers should be optional, figi or permid type stable ids should be the norm.</t>
+  </si>
+  <si>
+    <t>No broker name, analyst name, KPI name etc., look up reference data endpoint for relevant ids.</t>
+  </si>
+  <si>
+    <t>data-version</t>
+  </si>
+  <si>
+    <t>model-version</t>
+  </si>
+  <si>
+    <t>PIT: need to address 2 dimensions, ie 4 choices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Frutiger 45 Light"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF091E42"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCC0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF091E42"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,13 +308,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +665,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E45"/>
+  <dimension ref="B2:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,17 +683,17 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -557,25 +718,25 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -583,10 +744,10 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -594,10 +755,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -605,7 +766,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -634,90 +795,286 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>6</v>
+      <c r="B29" s="1"/>
+      <c r="D29" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>7</v>
+      <c r="B30" s="1"/>
+      <c r="D30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
-      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
